--- a/BioSTEAM 2.x.x/biorefineries/lipidcane/results/Monte Carlo across lipid fraction.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane/results/Monte Carlo across lipid fraction.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane/results/Monte Carlo across lipid fraction.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane/results/Monte Carlo across lipid fraction.xlsx
@@ -7,7 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Internal rate of return" sheetId="1" r:id="rId1"/>
+    <sheet name="Biodiesel production cost" sheetId="2" r:id="rId2"/>
+    <sheet name="Ethanol production cost" sheetId="3" r:id="rId3"/>
+    <sheet name="Fixed capital investment" sheetId="4" r:id="rId4"/>
+    <sheet name="Biodiesel production" sheetId="5" r:id="rId5"/>
+    <sheet name="Ethanol production" sheetId="6" r:id="rId6"/>
+    <sheet name="Steam" sheetId="7" r:id="rId7"/>
+    <sheet name="Consumed electricity" sheetId="8" r:id="rId8"/>
+    <sheet name="Excess electricity" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -15,8 +23,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +56,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +374,2340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.01358974358974359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.01717948717948718</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.02076923076923077</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.02794871794871795</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.03153846153846154</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.03512820512820512</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.03871794871794872</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.0423076923076923</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.0458974358974359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.04948717948717948</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.05307692307692307</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.06025641025641025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.06384615384615384</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.06743589743589742</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.07102564102564102</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.0746153846153846</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.07820512820512819</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.08179487179487178</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.08538461538461536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.08897435897435896</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.09256410256410255</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.09615384615384613</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.09974358974358973</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.1069230769230769</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.1105128205128205</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.1141025641025641</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.1176923076923077</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.1212820512820513</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.1248717948717949</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.1284615384615385</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.132051282051282</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.1356410256410256</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.1392307692307692</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.1428205128205128</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.1464102564102564</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1182129339405403</v>
+      </c>
+      <c r="C2">
+        <v>0.1219068939839453</v>
+      </c>
+      <c r="D2">
+        <v>0.1252526806487463</v>
+      </c>
+      <c r="E2">
+        <v>0.128560064085405</v>
+      </c>
+      <c r="F2">
+        <v>0.1317737067898356</v>
+      </c>
+      <c r="G2">
+        <v>0.1349090214002665</v>
+      </c>
+      <c r="H2">
+        <v>0.1383891416013109</v>
+      </c>
+      <c r="I2">
+        <v>0.1414969571331867</v>
+      </c>
+      <c r="J2">
+        <v>0.1445583037367719</v>
+      </c>
+      <c r="K2">
+        <v>0.1475750790926147</v>
+      </c>
+      <c r="L2">
+        <v>0.1511309066375431</v>
+      </c>
+      <c r="M2">
+        <v>0.1540564792871773</v>
+      </c>
+      <c r="N2">
+        <v>0.1569025558585508</v>
+      </c>
+      <c r="O2">
+        <v>0.1596472742495</v>
+      </c>
+      <c r="P2">
+        <v>0.1621286296456659</v>
+      </c>
+      <c r="Q2">
+        <v>0.1646145868822518</v>
+      </c>
+      <c r="R2">
+        <v>0.1670476591507906</v>
+      </c>
+      <c r="S2">
+        <v>0.1693757222519488</v>
+      </c>
+      <c r="T2">
+        <v>0.171635896095182</v>
+      </c>
+      <c r="U2">
+        <v>0.1737834092889523</v>
+      </c>
+      <c r="V2">
+        <v>0.1759280413267132</v>
+      </c>
+      <c r="W2">
+        <v>0.1780049947504716</v>
+      </c>
+      <c r="X2">
+        <v>0.1800342149690002</v>
+      </c>
+      <c r="Y2">
+        <v>0.1820153269762497</v>
+      </c>
+      <c r="Z2">
+        <v>0.1839607807873525</v>
+      </c>
+      <c r="AA2">
+        <v>0.1858864320352275</v>
+      </c>
+      <c r="AB2">
+        <v>0.1877969759441259</v>
+      </c>
+      <c r="AC2">
+        <v>0.189659429926448</v>
+      </c>
+      <c r="AD2">
+        <v>0.1915400894895753</v>
+      </c>
+      <c r="AE2">
+        <v>0.1933969901817307</v>
+      </c>
+      <c r="AF2">
+        <v>0.1952263826400635</v>
+      </c>
+      <c r="AG2">
+        <v>0.1970518958319164</v>
+      </c>
+      <c r="AH2">
+        <v>0.1989739051443434</v>
+      </c>
+      <c r="AI2">
+        <v>0.2006559077795912</v>
+      </c>
+      <c r="AJ2">
+        <v>0.2024572850964736</v>
+      </c>
+      <c r="AK2">
+        <v>0.2042323703008338</v>
+      </c>
+      <c r="AL2">
+        <v>0.2060086902602864</v>
+      </c>
+      <c r="AM2">
+        <v>0.2077576352808677</v>
+      </c>
+      <c r="AN2">
+        <v>0.2095050872494394</v>
+      </c>
+      <c r="AO2">
+        <v>0.2111791331155663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.01358974358974359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.01717948717948718</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.02076923076923077</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.02794871794871795</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.03153846153846154</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.03512820512820512</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.03871794871794872</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.0423076923076923</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.0458974358974359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.04948717948717948</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.05307692307692307</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.06025641025641025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.06384615384615384</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.06743589743589742</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.07102564102564102</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.0746153846153846</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.07820512820512819</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.08179487179487178</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.08538461538461536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.08897435897435896</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.09256410256410255</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.09615384615384613</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.09974358974358973</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.1069230769230769</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.1105128205128205</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.1141025641025641</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.1176923076923077</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.1212820512820513</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.1248717948717949</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.1284615384615385</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.132051282051282</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.1356410256410256</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.1392307692307692</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.1428205128205128</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.1464102564102564</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4315411.138509563</v>
+      </c>
+      <c r="C2">
+        <v>5787185.402200452</v>
+      </c>
+      <c r="D2">
+        <v>7222086.074858964</v>
+      </c>
+      <c r="E2">
+        <v>8618512.269155052</v>
+      </c>
+      <c r="F2">
+        <v>9977545.285577949</v>
+      </c>
+      <c r="G2">
+        <v>11299676.65695463</v>
+      </c>
+      <c r="H2">
+        <v>12578976.53129817</v>
+      </c>
+      <c r="I2">
+        <v>13826320.87664594</v>
+      </c>
+      <c r="J2">
+        <v>15037685.62040702</v>
+      </c>
+      <c r="K2">
+        <v>16213539.96085058</v>
+      </c>
+      <c r="L2">
+        <v>17341747.79786364</v>
+      </c>
+      <c r="M2">
+        <v>18447270.47062759</v>
+      </c>
+      <c r="N2">
+        <v>19519678.53931154</v>
+      </c>
+      <c r="O2">
+        <v>20569433.86567375</v>
+      </c>
+      <c r="P2">
+        <v>21612806.30590725</v>
+      </c>
+      <c r="Q2">
+        <v>22626619.4308501</v>
+      </c>
+      <c r="R2">
+        <v>23612850.63639741</v>
+      </c>
+      <c r="S2">
+        <v>24570466.30745772</v>
+      </c>
+      <c r="T2">
+        <v>25500051.29428739</v>
+      </c>
+      <c r="U2">
+        <v>26405604.44047763</v>
+      </c>
+      <c r="V2">
+        <v>27283692.42519516</v>
+      </c>
+      <c r="W2">
+        <v>28152152.91420543</v>
+      </c>
+      <c r="X2">
+        <v>29012069.67447666</v>
+      </c>
+      <c r="Y2">
+        <v>29849871.71695109</v>
+      </c>
+      <c r="Z2">
+        <v>30665436.01275565</v>
+      </c>
+      <c r="AA2">
+        <v>31458454.66932973</v>
+      </c>
+      <c r="AB2">
+        <v>32228959.32447678</v>
+      </c>
+      <c r="AC2">
+        <v>32978823.83838254</v>
+      </c>
+      <c r="AD2">
+        <v>33705271.67049311</v>
+      </c>
+      <c r="AE2">
+        <v>34410370.45618002</v>
+      </c>
+      <c r="AF2">
+        <v>35094852.80399001</v>
+      </c>
+      <c r="AG2">
+        <v>35757719.1577896</v>
+      </c>
+      <c r="AH2">
+        <v>36393816.21506201</v>
+      </c>
+      <c r="AI2">
+        <v>37021416.65751986</v>
+      </c>
+      <c r="AJ2">
+        <v>37621506.45376499</v>
+      </c>
+      <c r="AK2">
+        <v>38202180.50353339</v>
+      </c>
+      <c r="AL2">
+        <v>38762131.09343626</v>
+      </c>
+      <c r="AM2">
+        <v>39303252.27247571</v>
+      </c>
+      <c r="AN2">
+        <v>39824310.0260851</v>
+      </c>
+      <c r="AO2">
+        <v>40329848.60141217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.01358974358974359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.01717948717948718</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.02076923076923077</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.02794871794871795</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.03153846153846154</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.03512820512820512</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.03871794871794872</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.0423076923076923</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.0458974358974359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.04948717948717948</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.05307692307692307</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.06025641025641025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.06384615384615384</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.06743589743589742</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.07102564102564102</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.0746153846153846</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.07820512820512819</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.08179487179487178</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.08538461538461536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.08897435897435896</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.09256410256410255</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.09615384615384613</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.09974358974358973</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.1069230769230769</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.1105128205128205</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.1141025641025641</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.1176923076923077</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.1212820512820513</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.1248717948717949</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.1284615384615385</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.132051282051282</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.1356410256410256</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.1392307692307692</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.1428205128205128</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.1464102564102564</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>63041544.0551615</v>
+      </c>
+      <c r="C2">
+        <v>61052688.87162345</v>
+      </c>
+      <c r="D2">
+        <v>59111559.08620878</v>
+      </c>
+      <c r="E2">
+        <v>57205322.54915603</v>
+      </c>
+      <c r="F2">
+        <v>55337737.49281899</v>
+      </c>
+      <c r="G2">
+        <v>53507351.37047271</v>
+      </c>
+      <c r="H2">
+        <v>51686812.57734904</v>
+      </c>
+      <c r="I2">
+        <v>49922487.78283681</v>
+      </c>
+      <c r="J2">
+        <v>48192700.6573474</v>
+      </c>
+      <c r="K2">
+        <v>46497062.44673343</v>
+      </c>
+      <c r="L2">
+        <v>44802626.7050279</v>
+      </c>
+      <c r="M2">
+        <v>43175531.13872445</v>
+      </c>
+      <c r="N2">
+        <v>41583447.56557783</v>
+      </c>
+      <c r="O2">
+        <v>40044936.32699289</v>
+      </c>
+      <c r="P2">
+        <v>38582591.12725809</v>
+      </c>
+      <c r="Q2">
+        <v>37146359.76709907</v>
+      </c>
+      <c r="R2">
+        <v>35738700.40272789</v>
+      </c>
+      <c r="S2">
+        <v>34357056.55108232</v>
+      </c>
+      <c r="T2">
+        <v>33001609.97698101</v>
+      </c>
+      <c r="U2">
+        <v>31676521.5138686</v>
+      </c>
+      <c r="V2">
+        <v>30376408.8021927</v>
+      </c>
+      <c r="W2">
+        <v>29119237.58782862</v>
+      </c>
+      <c r="X2">
+        <v>27901757.003582</v>
+      </c>
+      <c r="Y2">
+        <v>26707979.32082999</v>
+      </c>
+      <c r="Z2">
+        <v>25537054.3952694</v>
+      </c>
+      <c r="AA2">
+        <v>24388124.2021619</v>
+      </c>
+      <c r="AB2">
+        <v>23260727.53310534</v>
+      </c>
+      <c r="AC2">
+        <v>22155698.77636297</v>
+      </c>
+      <c r="AD2">
+        <v>21070670.23438888</v>
+      </c>
+      <c r="AE2">
+        <v>20006655.56703281</v>
+      </c>
+      <c r="AF2">
+        <v>18963629.82456837</v>
+      </c>
+      <c r="AG2">
+        <v>17940635.5636586</v>
+      </c>
+      <c r="AH2">
+        <v>16934979.92003343</v>
+      </c>
+      <c r="AI2">
+        <v>15954806.82444479</v>
+      </c>
+      <c r="AJ2">
+        <v>14990997.88401718</v>
+      </c>
+      <c r="AK2">
+        <v>14046906.08290545</v>
+      </c>
+      <c r="AL2">
+        <v>13121717.30814558</v>
+      </c>
+      <c r="AM2">
+        <v>12215794.61780887</v>
+      </c>
+      <c r="AN2">
+        <v>11328433.45782901</v>
+      </c>
+      <c r="AO2">
+        <v>10460585.41739804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.01358974358974359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.01717948717948718</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.02076923076923077</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.02794871794871795</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.03153846153846154</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.03512820512820512</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.03871794871794872</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.0423076923076923</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.0458974358974359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.04948717948717948</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.05307692307692307</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.06025641025641025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.06384615384615384</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.06743589743589742</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.07102564102564102</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.0746153846153846</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.07820512820512819</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.08179487179487178</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.08538461538461536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.08897435897435896</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.09256410256410255</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.09615384615384613</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.09974358974358973</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.1069230769230769</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.1105128205128205</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.1141025641025641</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.1176923076923077</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.1212820512820513</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.1248717948717949</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.1284615384615385</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.132051282051282</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.1356410256410256</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.1392307692307692</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.1428205128205128</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.1464102564102564</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>177914158.1511177</v>
+      </c>
+      <c r="C2">
+        <v>179233335.0724841</v>
+      </c>
+      <c r="D2">
+        <v>180761523.5032777</v>
+      </c>
+      <c r="E2">
+        <v>182238956.7476375</v>
+      </c>
+      <c r="F2">
+        <v>183733636.9456276</v>
+      </c>
+      <c r="G2">
+        <v>185232039.2936622</v>
+      </c>
+      <c r="H2">
+        <v>186265397.8781</v>
+      </c>
+      <c r="I2">
+        <v>187639795.099259</v>
+      </c>
+      <c r="J2">
+        <v>188993562.116713</v>
+      </c>
+      <c r="K2">
+        <v>190327642.5026733</v>
+      </c>
+      <c r="L2">
+        <v>191007065.2509357</v>
+      </c>
+      <c r="M2">
+        <v>192314911.1997627</v>
+      </c>
+      <c r="N2">
+        <v>193648652.6565475</v>
+      </c>
+      <c r="O2">
+        <v>194885220.5152617</v>
+      </c>
+      <c r="P2">
+        <v>196067928.3930721</v>
+      </c>
+      <c r="Q2">
+        <v>197202760.3237584</v>
+      </c>
+      <c r="R2">
+        <v>198353087.957082</v>
+      </c>
+      <c r="S2">
+        <v>199464750.3321798</v>
+      </c>
+      <c r="T2">
+        <v>200550596.6764988</v>
+      </c>
+      <c r="U2">
+        <v>201724913.735051</v>
+      </c>
+      <c r="V2">
+        <v>202864166.177659</v>
+      </c>
+      <c r="W2">
+        <v>203897957.0811734</v>
+      </c>
+      <c r="X2">
+        <v>204814029.82239</v>
+      </c>
+      <c r="Y2">
+        <v>205756249.3580743</v>
+      </c>
+      <c r="Z2">
+        <v>206711221.5735461</v>
+      </c>
+      <c r="AA2">
+        <v>207661512.7122605</v>
+      </c>
+      <c r="AB2">
+        <v>208602995.9559058</v>
+      </c>
+      <c r="AC2">
+        <v>209572919.0459056</v>
+      </c>
+      <c r="AD2">
+        <v>210497542.3263322</v>
+      </c>
+      <c r="AE2">
+        <v>211425582.8626095</v>
+      </c>
+      <c r="AF2">
+        <v>212360106.6757118</v>
+      </c>
+      <c r="AG2">
+        <v>213275981.8081872</v>
+      </c>
+      <c r="AH2">
+        <v>214062896.3852685</v>
+      </c>
+      <c r="AI2">
+        <v>215093456.1094716</v>
+      </c>
+      <c r="AJ2">
+        <v>215970806.2852068</v>
+      </c>
+      <c r="AK2">
+        <v>216856443.6136647</v>
+      </c>
+      <c r="AL2">
+        <v>217720534.3743728</v>
+      </c>
+      <c r="AM2">
+        <v>218594976.6022272</v>
+      </c>
+      <c r="AN2">
+        <v>219451610.9582466</v>
+      </c>
+      <c r="AO2">
+        <v>220369880.0195361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.01358974358974359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.01717948717948718</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.02076923076923077</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.02794871794871795</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.03153846153846154</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.03512820512820512</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.03871794871794872</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.0423076923076923</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.0458974358974359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.04948717948717948</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.05307692307692307</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.06025641025641025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.06384615384615384</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.06743589743589742</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.07102564102564102</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.0746153846153846</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.07820512820512819</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.08179487179487178</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.08538461538461536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.08897435897435896</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.09256410256410255</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.09615384615384613</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.09974358974358973</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.1069230769230769</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.1105128205128205</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.1141025641025641</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.1176923076923077</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.1212820512820513</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.1248717948717949</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.1284615384615385</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.132051282051282</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.1356410256410256</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.1392307692307692</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.1428205128205128</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.1464102564102564</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4179793.459420529</v>
+      </c>
+      <c r="C2">
+        <v>5680233.474573044</v>
+      </c>
+      <c r="D2">
+        <v>7180669.543068445</v>
+      </c>
+      <c r="E2">
+        <v>8681105.652646048</v>
+      </c>
+      <c r="F2">
+        <v>10181541.78431536</v>
+      </c>
+      <c r="G2">
+        <v>11681977.9293589</v>
+      </c>
+      <c r="H2">
+        <v>13182414.08311262</v>
+      </c>
+      <c r="I2">
+        <v>14682850.24285533</v>
+      </c>
+      <c r="J2">
+        <v>16183286.40689243</v>
+      </c>
+      <c r="K2">
+        <v>17683722.57411356</v>
+      </c>
+      <c r="L2">
+        <v>19184158.74376075</v>
+      </c>
+      <c r="M2">
+        <v>20684594.91529897</v>
+      </c>
+      <c r="N2">
+        <v>22185031.0883397</v>
+      </c>
+      <c r="O2">
+        <v>23685467.26259405</v>
+      </c>
+      <c r="P2">
+        <v>25185903.43784271</v>
+      </c>
+      <c r="Q2">
+        <v>26686339.61391625</v>
+      </c>
+      <c r="R2">
+        <v>28186775.79068161</v>
+      </c>
+      <c r="S2">
+        <v>29687211.96803294</v>
+      </c>
+      <c r="T2">
+        <v>31187648.14588489</v>
+      </c>
+      <c r="U2">
+        <v>32688084.32416797</v>
+      </c>
+      <c r="V2">
+        <v>34188520.50282492</v>
+      </c>
+      <c r="W2">
+        <v>35688956.68180825</v>
+      </c>
+      <c r="X2">
+        <v>37189392.86107814</v>
+      </c>
+      <c r="Y2">
+        <v>38689829.04060104</v>
+      </c>
+      <c r="Z2">
+        <v>40190265.22034838</v>
+      </c>
+      <c r="AA2">
+        <v>41690701.4002958</v>
+      </c>
+      <c r="AB2">
+        <v>43191137.58042228</v>
+      </c>
+      <c r="AC2">
+        <v>44691573.76070972</v>
+      </c>
+      <c r="AD2">
+        <v>46192009.94114232</v>
+      </c>
+      <c r="AE2">
+        <v>47692446.12170627</v>
+      </c>
+      <c r="AF2">
+        <v>49192882.30238952</v>
+      </c>
+      <c r="AG2">
+        <v>50693318.48318138</v>
+      </c>
+      <c r="AH2">
+        <v>52193754.66407249</v>
+      </c>
+      <c r="AI2">
+        <v>53694190.84505447</v>
+      </c>
+      <c r="AJ2">
+        <v>55194627.02611984</v>
+      </c>
+      <c r="AK2">
+        <v>56695063.20726195</v>
+      </c>
+      <c r="AL2">
+        <v>58195499.38847488</v>
+      </c>
+      <c r="AM2">
+        <v>59695935.56975321</v>
+      </c>
+      <c r="AN2">
+        <v>61196371.7510922</v>
+      </c>
+      <c r="AO2">
+        <v>62696807.93248738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.01358974358974359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.01717948717948718</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.02076923076923077</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.02794871794871795</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.03153846153846154</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.03512820512820512</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.03871794871794872</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.0423076923076923</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.0458974358974359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.04948717948717948</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.05307692307692307</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.06025641025641025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.06384615384615384</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.06743589743589742</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.07102564102564102</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.0746153846153846</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.07820512820512819</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.08179487179487178</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.08538461538461536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.08897435897435896</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.09256410256410255</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.09615384615384613</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.09974358974358973</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.1069230769230769</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.1105128205128205</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.1141025641025641</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.1176923076923077</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.1212820512820513</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.1248717948717949</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.1284615384615385</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.132051282051282</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.1356410256410256</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.1392307692307692</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.1428205128205128</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.1464102564102564</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>106797618.5741809</v>
+      </c>
+      <c r="C2">
+        <v>104810711.6889585</v>
+      </c>
+      <c r="D2">
+        <v>102796133.0877931</v>
+      </c>
+      <c r="E2">
+        <v>100781602.452104</v>
+      </c>
+      <c r="F2">
+        <v>98767332.00099798</v>
+      </c>
+      <c r="G2">
+        <v>96753325.7514953</v>
+      </c>
+      <c r="H2">
+        <v>94739584.72411847</v>
+      </c>
+      <c r="I2">
+        <v>92726109.85592695</v>
+      </c>
+      <c r="J2">
+        <v>90712903.2156494</v>
+      </c>
+      <c r="K2">
+        <v>88699964.52670175</v>
+      </c>
+      <c r="L2">
+        <v>86687295.39993118</v>
+      </c>
+      <c r="M2">
+        <v>84674896.96807407</v>
+      </c>
+      <c r="N2">
+        <v>82662770.3819052</v>
+      </c>
+      <c r="O2">
+        <v>80650916.82671194</v>
+      </c>
+      <c r="P2">
+        <v>78639337.55638048</v>
+      </c>
+      <c r="Q2">
+        <v>76628033.44770457</v>
+      </c>
+      <c r="R2">
+        <v>74617006.16210033</v>
+      </c>
+      <c r="S2">
+        <v>72606256.82638484</v>
+      </c>
+      <c r="T2">
+        <v>70595786.73395672</v>
+      </c>
+      <c r="U2">
+        <v>68585597.12414004</v>
+      </c>
+      <c r="V2">
+        <v>66575689.70557739</v>
+      </c>
+      <c r="W2">
+        <v>64566065.5122915</v>
+      </c>
+      <c r="X2">
+        <v>62556726.09285731</v>
+      </c>
+      <c r="Y2">
+        <v>60547672.91436139</v>
+      </c>
+      <c r="Z2">
+        <v>58538907.48071129</v>
+      </c>
+      <c r="AA2">
+        <v>56530431.17928707</v>
+      </c>
+      <c r="AB2">
+        <v>54522245.98137875</v>
+      </c>
+      <c r="AC2">
+        <v>52514353.14985119</v>
+      </c>
+      <c r="AD2">
+        <v>50506754.41471566</v>
+      </c>
+      <c r="AE2">
+        <v>48499451.62997504</v>
+      </c>
+      <c r="AF2">
+        <v>46492446.13450287</v>
+      </c>
+      <c r="AG2">
+        <v>44485740.10467923</v>
+      </c>
+      <c r="AH2">
+        <v>42479335.20185219</v>
+      </c>
+      <c r="AI2">
+        <v>40473233.4600636</v>
+      </c>
+      <c r="AJ2">
+        <v>38467436.65436094</v>
+      </c>
+      <c r="AK2">
+        <v>36461946.83452105</v>
+      </c>
+      <c r="AL2">
+        <v>34456766.00892639</v>
+      </c>
+      <c r="AM2">
+        <v>32451896.30587585</v>
+      </c>
+      <c r="AN2">
+        <v>30447339.87636804</v>
+      </c>
+      <c r="AO2">
+        <v>28443098.93373872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.01358974358974359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.01717948717948718</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.02076923076923077</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.02794871794871795</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.03153846153846154</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.03512820512820512</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.03871794871794872</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.0423076923076923</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.0458974358974359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.04948717948717948</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.05307692307692307</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.06025641025641025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.06384615384615384</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.06743589743589742</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.07102564102564102</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.0746153846153846</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.07820512820512819</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.08179487179487178</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.08538461538461536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.08897435897435896</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.09256410256410255</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.09615384615384613</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.09974358974358973</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.1069230769230769</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.1105128205128205</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.1141025641025641</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.1176923076923077</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.1212820512820513</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.1248717948717949</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.1284615384615385</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.132051282051282</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.1356410256410256</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.1392307692307692</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.1428205128205128</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.1464102564102564</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>804954.9608241929</v>
+      </c>
+      <c r="C2">
+        <v>797750.2029710007</v>
+      </c>
+      <c r="D2">
+        <v>790467.099067359</v>
+      </c>
+      <c r="E2">
+        <v>783183.9951580401</v>
+      </c>
+      <c r="F2">
+        <v>775901.904867915</v>
+      </c>
+      <c r="G2">
+        <v>768620.8356509524</v>
+      </c>
+      <c r="H2">
+        <v>761340.7708519372</v>
+      </c>
+      <c r="I2">
+        <v>754061.947014878</v>
+      </c>
+      <c r="J2">
+        <v>746784.0571498381</v>
+      </c>
+      <c r="K2">
+        <v>739507.2228413923</v>
+      </c>
+      <c r="L2">
+        <v>732231.451135328</v>
+      </c>
+      <c r="M2">
+        <v>724956.7480759664</v>
+      </c>
+      <c r="N2">
+        <v>717683.1232591111</v>
+      </c>
+      <c r="O2">
+        <v>711862.4354786079</v>
+      </c>
+      <c r="P2">
+        <v>708864.8236090145</v>
+      </c>
+      <c r="Q2">
+        <v>705867.7155736398</v>
+      </c>
+      <c r="R2">
+        <v>702871.0670656168</v>
+      </c>
+      <c r="S2">
+        <v>699874.8760884037</v>
+      </c>
+      <c r="T2">
+        <v>696879.1113327048</v>
+      </c>
+      <c r="U2">
+        <v>693883.9046048516</v>
+      </c>
+      <c r="V2">
+        <v>690889.118965965</v>
+      </c>
+      <c r="W2">
+        <v>689461.7711480749</v>
+      </c>
+      <c r="X2">
+        <v>689553.5883012359</v>
+      </c>
+      <c r="Y2">
+        <v>689633.9147843862</v>
+      </c>
+      <c r="Z2">
+        <v>689702.6981421994</v>
+      </c>
+      <c r="AA2">
+        <v>689760.458406921</v>
+      </c>
+      <c r="AB2">
+        <v>689806.8437343483</v>
+      </c>
+      <c r="AC2">
+        <v>689842.04592001</v>
+      </c>
+      <c r="AD2">
+        <v>689866.2889440864</v>
+      </c>
+      <c r="AE2">
+        <v>689879.1034995065</v>
+      </c>
+      <c r="AF2">
+        <v>689880.9897894985</v>
+      </c>
+      <c r="AG2">
+        <v>689871.7429141102</v>
+      </c>
+      <c r="AH2">
+        <v>689851.532366665</v>
+      </c>
+      <c r="AI2">
+        <v>689820.0683961428</v>
+      </c>
+      <c r="AJ2">
+        <v>689777.3158340137</v>
+      </c>
+      <c r="AK2">
+        <v>689723.1098280827</v>
+      </c>
+      <c r="AL2">
+        <v>689657.3043003933</v>
+      </c>
+      <c r="AM2">
+        <v>689579.6025269061</v>
+      </c>
+      <c r="AN2">
+        <v>689489.7495988968</v>
+      </c>
+      <c r="AO2">
+        <v>689387.3235762891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.01358974358974359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.01717948717948718</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.02076923076923077</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.02794871794871795</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.03153846153846154</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.03512820512820512</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.03871794871794872</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.0423076923076923</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.0458974358974359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.04948717948717948</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.05307692307692307</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.06025641025641025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.06384615384615384</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.06743589743589742</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.07102564102564102</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.0746153846153846</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.07820512820512819</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.08179487179487178</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.08538461538461536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.08897435897435896</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.09256410256410255</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.09615384615384613</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.09974358974358973</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.1069230769230769</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.1105128205128205</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.1141025641025641</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.1176923076923077</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.1212820512820513</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.1248717948717949</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.1284615384615385</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.132051282051282</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.1356410256410256</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.1392307692307692</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.1428205128205128</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.1464102564102564</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>47520.29786097012</v>
+      </c>
+      <c r="C2">
+        <v>47495.59104602262</v>
+      </c>
+      <c r="D2">
+        <v>47455.88811181404</v>
+      </c>
+      <c r="E2">
+        <v>47416.02000527893</v>
+      </c>
+      <c r="F2">
+        <v>47376.20204618856</v>
+      </c>
+      <c r="G2">
+        <v>47336.41739883183</v>
+      </c>
+      <c r="H2">
+        <v>47296.68608594033</v>
+      </c>
+      <c r="I2">
+        <v>47257.07977641296</v>
+      </c>
+      <c r="J2">
+        <v>47217.38238422591</v>
+      </c>
+      <c r="K2">
+        <v>47177.75263886149</v>
+      </c>
+      <c r="L2">
+        <v>47138.19336872474</v>
+      </c>
+      <c r="M2">
+        <v>47098.70657124247</v>
+      </c>
+      <c r="N2">
+        <v>47059.62419399004</v>
+      </c>
+      <c r="O2">
+        <v>47025.63129378096</v>
+      </c>
+      <c r="P2">
+        <v>47003.51168540986</v>
+      </c>
+      <c r="Q2">
+        <v>46980.40684226038</v>
+      </c>
+      <c r="R2">
+        <v>46955.35182650288</v>
+      </c>
+      <c r="S2">
+        <v>46932.27529917742</v>
+      </c>
+      <c r="T2">
+        <v>46908.94811487728</v>
+      </c>
+      <c r="U2">
+        <v>46886.01489731266</v>
+      </c>
+      <c r="V2">
+        <v>46862.84224862639</v>
+      </c>
+      <c r="W2">
+        <v>46845.29301446316</v>
+      </c>
+      <c r="X2">
+        <v>46832.57162861752</v>
+      </c>
+      <c r="Y2">
+        <v>46820.20773492989</v>
+      </c>
+      <c r="Z2">
+        <v>46807.88035432932</v>
+      </c>
+      <c r="AA2">
+        <v>46796.48867871328</v>
+      </c>
+      <c r="AB2">
+        <v>46784.07075435499</v>
+      </c>
+      <c r="AC2">
+        <v>46771.52954902012</v>
+      </c>
+      <c r="AD2">
+        <v>46760.18004314582</v>
+      </c>
+      <c r="AE2">
+        <v>46744.39845166158</v>
+      </c>
+      <c r="AF2">
+        <v>46731.52405481126</v>
+      </c>
+      <c r="AG2">
+        <v>46718.98172864623</v>
+      </c>
+      <c r="AH2">
+        <v>46706.48809477805</v>
+      </c>
+      <c r="AI2">
+        <v>46693.56694008666</v>
+      </c>
+      <c r="AJ2">
+        <v>46680.91271333405</v>
+      </c>
+      <c r="AK2">
+        <v>46668.30752109271</v>
+      </c>
+      <c r="AL2">
+        <v>46655.75296952541</v>
+      </c>
+      <c r="AM2">
+        <v>46643.24853794935</v>
+      </c>
+      <c r="AN2">
+        <v>46631.82938694004</v>
+      </c>
+      <c r="AO2">
+        <v>46619.43800444408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.01358974358974359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.01717948717948718</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.02076923076923077</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.02435897435897436</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.02794871794871795</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.03153846153846154</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.03512820512820512</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.03871794871794872</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.0423076923076923</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.0458974358974359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.04948717948717948</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.05307692307692307</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.06025641025641025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.06384615384615384</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.06743589743589742</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.07102564102564102</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.0746153846153846</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.07820512820512819</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.08179487179487178</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.08538461538461536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.08897435897435896</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.09256410256410255</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.09615384615384613</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.09974358974358973</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.1069230769230769</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.1105128205128205</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0.1141025641025641</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0.1176923076923077</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0.1212820512820513</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0.1248717948717949</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0.1284615384615385</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0.132051282051282</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0.1356410256410256</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0.1392307692307692</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0.1428205128205128</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0.1464102564102564</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>152771.0070892013</v>
+      </c>
+      <c r="C2">
+        <v>162530.6136169156</v>
+      </c>
+      <c r="D2">
+        <v>172336.27407715</v>
+      </c>
+      <c r="E2">
+        <v>182142.0962394219</v>
+      </c>
+      <c r="F2">
+        <v>191947.4631007044</v>
+      </c>
+      <c r="G2">
+        <v>201752.3885448319</v>
+      </c>
+      <c r="H2">
+        <v>211556.8591510917</v>
+      </c>
+      <c r="I2">
+        <v>221360.7095158376</v>
+      </c>
+      <c r="J2">
+        <v>231164.2773797792</v>
+      </c>
+      <c r="K2">
+        <v>240967.3558343434</v>
+      </c>
+      <c r="L2">
+        <v>250769.9392610015</v>
+      </c>
+      <c r="M2">
+        <v>260572.0232690576</v>
+      </c>
+      <c r="N2">
+        <v>270373.2721102988</v>
+      </c>
+      <c r="O2">
+        <v>279593.663998284</v>
+      </c>
+      <c r="P2">
+        <v>287683.4620277326</v>
+      </c>
+      <c r="Q2">
+        <v>295774.0421754062</v>
+      </c>
+      <c r="R2">
+        <v>303866.3869388239</v>
+      </c>
+      <c r="S2">
+        <v>311956.5684500691</v>
+      </c>
+      <c r="T2">
+        <v>320046.8282636093</v>
+      </c>
+      <c r="U2">
+        <v>328136.4695259942</v>
+      </c>
+      <c r="V2">
+        <v>336226.1799026025</v>
+      </c>
+      <c r="W2">
+        <v>343689.1254961005</v>
+      </c>
+      <c r="X2">
+        <v>350545.2312443907</v>
+      </c>
+      <c r="Y2">
+        <v>357405.5295331065</v>
+      </c>
+      <c r="Z2">
+        <v>364270.3621300347</v>
+      </c>
+      <c r="AA2">
+        <v>371138.6237689324</v>
+      </c>
+      <c r="AB2">
+        <v>378012.4158328538</v>
+      </c>
+      <c r="AC2">
+        <v>384890.759352004</v>
+      </c>
+      <c r="AD2">
+        <v>391772.2505899113</v>
+      </c>
+      <c r="AE2">
+        <v>398662.69930868</v>
+      </c>
+      <c r="AF2">
+        <v>405554.5680114767</v>
+      </c>
+      <c r="AG2">
+        <v>412450.5130210957</v>
+      </c>
+      <c r="AH2">
+        <v>419350.7505517172</v>
+      </c>
+      <c r="AI2">
+        <v>426255.8716397433</v>
+      </c>
+      <c r="AJ2">
+        <v>433165.1957747727</v>
+      </c>
+      <c r="AK2">
+        <v>440079.0061791086</v>
+      </c>
+      <c r="AL2">
+        <v>446997.3591356859</v>
+      </c>
+      <c r="AM2">
+        <v>453920.3727517038</v>
+      </c>
+      <c r="AN2">
+        <v>460847.112882696</v>
+      </c>
+      <c r="AO2">
+        <v>467779.8042473337</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BioSTEAM 2.x.x/biorefineries/lipidcane/results/Monte Carlo across lipid fraction.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane/results/Monte Carlo across lipid fraction.xlsx
@@ -507,124 +507,124 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1266519392190363</v>
+        <v>0.1263771079727516</v>
       </c>
       <c r="C2">
-        <v>0.1320827987746284</v>
+        <v>0.131882303219976</v>
       </c>
       <c r="D2">
-        <v>0.1365222240669869</v>
+        <v>0.1364141541486866</v>
       </c>
       <c r="E2">
-        <v>0.1406062527077547</v>
+        <v>0.1405941358863532</v>
       </c>
       <c r="F2">
-        <v>0.1445717958305068</v>
+        <v>0.1446569484277321</v>
       </c>
       <c r="G2">
-        <v>0.1483073852737691</v>
+        <v>0.1485416934058388</v>
       </c>
       <c r="H2">
-        <v>0.1521789089213643</v>
+        <v>0.1524966505124935</v>
       </c>
       <c r="I2">
-        <v>0.1565247998166276</v>
+        <v>0.1569294417113175</v>
       </c>
       <c r="J2">
-        <v>0.1602933860625438</v>
+        <v>0.1607816384629603</v>
       </c>
       <c r="K2">
-        <v>0.1637539748537611</v>
+        <v>0.1643302040077098</v>
       </c>
       <c r="L2">
-        <v>0.1674132316854152</v>
+        <v>0.1680385073982598</v>
       </c>
       <c r="M2">
-        <v>0.1702778475764708</v>
+        <v>0.1709874227734602</v>
       </c>
       <c r="N2">
-        <v>0.1731075043641316</v>
+        <v>0.1739025735896073</v>
       </c>
       <c r="O2">
-        <v>0.1759031031281533</v>
+        <v>0.1767846392578043</v>
       </c>
       <c r="P2">
-        <v>0.1786605609958584</v>
+        <v>0.1796337816898061</v>
       </c>
       <c r="Q2">
-        <v>0.1813936421817675</v>
+        <v>0.1824555786624679</v>
       </c>
       <c r="R2">
-        <v>0.1840950490928017</v>
+        <v>0.1852468843540655</v>
       </c>
       <c r="S2">
-        <v>0.1867309204485328</v>
+        <v>0.1879817717515009</v>
       </c>
       <c r="T2">
-        <v>0.1893740636906069</v>
+        <v>0.1907174567173378</v>
       </c>
       <c r="U2">
-        <v>0.1919640353803449</v>
+        <v>0.1934013512792702</v>
       </c>
       <c r="V2">
-        <v>0.1945524316079204</v>
+        <v>0.1960853859550391</v>
       </c>
       <c r="W2">
-        <v>0.1971680013594136</v>
+        <v>0.1987841472119619</v>
       </c>
       <c r="X2">
-        <v>0.1984594698112844</v>
+        <v>0.2001788398985246</v>
       </c>
       <c r="Y2">
-        <v>0.2019453033801686</v>
+        <v>0.2037646769751738</v>
       </c>
       <c r="Z2">
-        <v>0.2034934617698277</v>
+        <v>0.2054157924359034</v>
       </c>
       <c r="AA2">
-        <v>0.2068844039925832</v>
+        <v>0.2089159433379385</v>
       </c>
       <c r="AB2">
-        <v>0.2084023352719326</v>
+        <v>0.2105441536243976</v>
       </c>
       <c r="AC2">
-        <v>0.2117632894698791</v>
+        <v>0.2140120079238091</v>
       </c>
       <c r="AD2">
-        <v>0.2132597954658697</v>
+        <v>0.215619203768213</v>
       </c>
       <c r="AE2">
-        <v>0.2156410528349181</v>
+        <v>0.2181191135127548</v>
       </c>
       <c r="AF2">
-        <v>0.2180250813730967</v>
+        <v>0.2206170377220371</v>
       </c>
       <c r="AG2">
-        <v>0.22039950124457</v>
+        <v>0.2231031836858132</v>
       </c>
       <c r="AH2">
-        <v>0.2226763231244384</v>
+        <v>0.2255131861274797</v>
       </c>
       <c r="AI2">
-        <v>0.224880919839477</v>
+        <v>0.2278718614193154</v>
       </c>
       <c r="AJ2">
-        <v>0.227124379360835</v>
+        <v>0.2302570813832683</v>
       </c>
       <c r="AK2">
-        <v>0.2294469244436002</v>
+        <v>0.2327028854575225</v>
       </c>
       <c r="AL2">
-        <v>0.2316686852283727</v>
+        <v>0.23507120182545</v>
       </c>
       <c r="AM2">
-        <v>0.2338019887070642</v>
+        <v>0.2373724673852868</v>
       </c>
       <c r="AN2">
-        <v>0.2354125033221247</v>
+        <v>0.2392735549595764</v>
       </c>
       <c r="AO2">
-        <v>0.2383037468790247</v>
+        <v>0.2421459389766333</v>
       </c>
     </row>
   </sheetData>
@@ -767,124 +767,124 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4594933.690626844</v>
+        <v>4596739.77870624</v>
       </c>
       <c r="C2">
-        <v>6108293.198692793</v>
+        <v>6110121.35726426</v>
       </c>
       <c r="D2">
-        <v>7605036.044132697</v>
+        <v>7606441.948604696</v>
       </c>
       <c r="E2">
-        <v>9058508.365223253</v>
+        <v>9059112.278045349</v>
       </c>
       <c r="F2">
-        <v>10466855.05468448</v>
+        <v>10466300.66817262</v>
       </c>
       <c r="G2">
-        <v>11832657.09581897</v>
+        <v>11829857.90282767</v>
       </c>
       <c r="H2">
-        <v>13151702.24317585</v>
+        <v>13147242.59904813</v>
       </c>
       <c r="I2">
-        <v>14417986.89457383</v>
+        <v>14411589.69478941</v>
       </c>
       <c r="J2">
-        <v>15650246.40858212</v>
+        <v>15641699.57535029</v>
       </c>
       <c r="K2">
-        <v>16863990.44220488</v>
+        <v>16852969.30223284</v>
       </c>
       <c r="L2">
-        <v>18058375.0341168</v>
+        <v>18044614.65778005</v>
       </c>
       <c r="M2">
-        <v>19234442.86174945</v>
+        <v>19217681.83891526</v>
       </c>
       <c r="N2">
-        <v>20379429.33247763</v>
+        <v>20359409.33537341</v>
       </c>
       <c r="O2">
-        <v>21493981.92079541</v>
+        <v>21470454.34025065</v>
       </c>
       <c r="P2">
-        <v>22578808.22429512</v>
+        <v>22551403.7177843</v>
       </c>
       <c r="Q2">
-        <v>23634224.05829557</v>
+        <v>23602813.10777451</v>
       </c>
       <c r="R2">
-        <v>24661032.0557407</v>
+        <v>24625371.14144303</v>
       </c>
       <c r="S2">
-        <v>25660939.84227562</v>
+        <v>25620513.37289041</v>
       </c>
       <c r="T2">
-        <v>26632186.85268205</v>
+        <v>26587012.36507841</v>
       </c>
       <c r="U2">
-        <v>27577363.12671858</v>
+        <v>27527187.50014611</v>
       </c>
       <c r="V2">
-        <v>28495216.94969535</v>
+        <v>28439798.48891104</v>
       </c>
       <c r="W2">
-        <v>29385092.89277413</v>
+        <v>29324744.62747439</v>
       </c>
       <c r="X2">
-        <v>30368299.84383385</v>
+        <v>30301514.54925343</v>
       </c>
       <c r="Y2">
-        <v>31119186.84031079</v>
+        <v>31046872.85277091</v>
       </c>
       <c r="Z2">
-        <v>32030717.45205331</v>
+        <v>31951658.44733849</v>
       </c>
       <c r="AA2">
-        <v>32730951.74605981</v>
+        <v>32645670.93145756</v>
       </c>
       <c r="AB2">
-        <v>33597815.51684737</v>
+        <v>33505046.46144887</v>
       </c>
       <c r="AC2">
-        <v>34246829.65820542</v>
+        <v>34147673.68989405</v>
       </c>
       <c r="AD2">
-        <v>35070362.33543289</v>
+        <v>34963285.49446175</v>
       </c>
       <c r="AE2">
-        <v>35773411.52461211</v>
+        <v>35658460.95466016</v>
       </c>
       <c r="AF2">
-        <v>36453491.55317312</v>
+        <v>36330737.90453882</v>
       </c>
       <c r="AG2">
-        <v>37111471.43472846</v>
+        <v>36980869.88035478</v>
       </c>
       <c r="AH2">
-        <v>37752172.49956214</v>
+        <v>37612432.82078218</v>
       </c>
       <c r="AI2">
-        <v>38374903.17794525</v>
+        <v>38224726.11357758</v>
       </c>
       <c r="AJ2">
-        <v>38974486.8919296</v>
+        <v>38814342.93301651</v>
       </c>
       <c r="AK2">
-        <v>39548869.74824516</v>
+        <v>39379650.94548032</v>
       </c>
       <c r="AL2">
-        <v>40107985.12988172</v>
+        <v>39928210.02851827</v>
       </c>
       <c r="AM2">
-        <v>40651712.61869876</v>
+        <v>40459949.66194697</v>
       </c>
       <c r="AN2">
-        <v>41205507.546984</v>
+        <v>40994090.39055227</v>
       </c>
       <c r="AO2">
-        <v>41687041.0706769</v>
+        <v>41474696.2704834</v>
       </c>
     </row>
   </sheetData>
@@ -1027,124 +1027,124 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60064119.54857426</v>
+        <v>60087728.39640974</v>
       </c>
       <c r="C2">
-        <v>58172405.58427875</v>
+        <v>58189816.07497269</v>
       </c>
       <c r="D2">
-        <v>56221083.5648373</v>
+        <v>56231476.87163371</v>
       </c>
       <c r="E2">
-        <v>54301520.18853938</v>
+        <v>54305140.36340471</v>
       </c>
       <c r="F2">
-        <v>52422171.44788102</v>
+        <v>52419394.85982081</v>
       </c>
       <c r="G2">
-        <v>50594832.68867061</v>
+        <v>50582863.72008553</v>
       </c>
       <c r="H2">
-        <v>48797110.1712029</v>
+        <v>48780563.43513779</v>
       </c>
       <c r="I2">
-        <v>47010416.31437303</v>
+        <v>46989557.99154954</v>
       </c>
       <c r="J2">
-        <v>45296023.52208097</v>
+        <v>45271286.68733718</v>
       </c>
       <c r="K2">
-        <v>43681628.61535363</v>
+        <v>43653081.31838816</v>
       </c>
       <c r="L2">
-        <v>42144752.27564506</v>
+        <v>42112638.22048581</v>
       </c>
       <c r="M2">
-        <v>40673600.03317403</v>
+        <v>40638156.78463261</v>
       </c>
       <c r="N2">
-        <v>39232796.44285362</v>
+        <v>39194255.59569041</v>
       </c>
       <c r="O2">
-        <v>37821756.03533212</v>
+        <v>37780355.86970694</v>
       </c>
       <c r="P2">
-        <v>36440022.70621701</v>
+        <v>36395794.47106894</v>
       </c>
       <c r="Q2">
-        <v>35086553.67859639</v>
+        <v>35039922.06510087</v>
       </c>
       <c r="R2">
-        <v>33761147.77417125</v>
+        <v>33712327.70067861</v>
       </c>
       <c r="S2">
-        <v>32464680.29794466</v>
+        <v>32413535.15625334</v>
       </c>
       <c r="T2">
-        <v>31193567.30450601</v>
+        <v>31140655.63685717</v>
       </c>
       <c r="U2">
-        <v>29949832.3814414</v>
+        <v>29895340.16626571</v>
       </c>
       <c r="V2">
-        <v>28730957.82530956</v>
+        <v>28675080.8877046</v>
       </c>
       <c r="W2">
-        <v>27535552.42774275</v>
+        <v>27479002.56999182</v>
       </c>
       <c r="X2">
-        <v>26232146.00579101</v>
+        <v>26174456.84941801</v>
       </c>
       <c r="Y2">
-        <v>25186404.72741845</v>
+        <v>25127877.190469</v>
       </c>
       <c r="Z2">
-        <v>23961650.87809188</v>
+        <v>23902508.14197984</v>
       </c>
       <c r="AA2">
-        <v>22969384.73676992</v>
+        <v>22909537.78039474</v>
       </c>
       <c r="AB2">
-        <v>21788022.89990607</v>
+        <v>21727862.61054406</v>
       </c>
       <c r="AC2">
-        <v>20843667.19880188</v>
+        <v>20783317.84603306</v>
       </c>
       <c r="AD2">
-        <v>19704371.48543654</v>
+        <v>19644210.09241179</v>
       </c>
       <c r="AE2">
-        <v>18691941.16614508</v>
+        <v>18631878.42124644</v>
       </c>
       <c r="AF2">
-        <v>17704496.72663235</v>
+        <v>17644878.52607512</v>
       </c>
       <c r="AG2">
-        <v>16738081.67514794</v>
+        <v>16679177.53043213</v>
       </c>
       <c r="AH2">
-        <v>15794118.52304263</v>
+        <v>15735656.58819508</v>
       </c>
       <c r="AI2">
-        <v>14871447.09503443</v>
+        <v>14813248.89562073</v>
       </c>
       <c r="AJ2">
-        <v>13967478.37832547</v>
+        <v>13910086.80086249</v>
       </c>
       <c r="AK2">
-        <v>13081307.33306845</v>
+        <v>13025335.9948332</v>
       </c>
       <c r="AL2">
-        <v>12215915.50185178</v>
+        <v>12161160.38412445</v>
       </c>
       <c r="AM2">
-        <v>11370491.42503323</v>
+        <v>11316854.34765258</v>
       </c>
       <c r="AN2">
-        <v>10550859.16899032</v>
+        <v>10496724.83656216</v>
       </c>
       <c r="AO2">
-        <v>9735444.256638842</v>
+        <v>9685854.00239254</v>
       </c>
     </row>
   </sheetData>
@@ -1287,124 +1287,124 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>181923693.8199539</v>
+        <v>182211002.3322872</v>
       </c>
       <c r="C2">
-        <v>183330118.7505441</v>
+        <v>183531423.10008</v>
       </c>
       <c r="D2">
-        <v>184606334.6485538</v>
+        <v>184704111.6482563</v>
       </c>
       <c r="E2">
-        <v>185905739.8976079</v>
+        <v>185898136.3881662</v>
       </c>
       <c r="F2">
-        <v>187177905.8715034</v>
+        <v>187065217.6155345</v>
       </c>
       <c r="G2">
-        <v>188592918.2229369</v>
+        <v>188320470.3385141</v>
       </c>
       <c r="H2">
-        <v>189768622.2714101</v>
+        <v>189409640.3238878</v>
       </c>
       <c r="I2">
-        <v>190357211.9630381</v>
+        <v>189911542.2456904</v>
       </c>
       <c r="J2">
-        <v>191485040.3104586</v>
+        <v>190955795.4985475</v>
       </c>
       <c r="K2">
-        <v>192522833.0223612</v>
+        <v>191906398.6981884</v>
       </c>
       <c r="L2">
-        <v>192766690.6134627</v>
+        <v>192062767.8594966</v>
       </c>
       <c r="M2">
-        <v>193677445.5796002</v>
+        <v>192885698.4973143</v>
       </c>
       <c r="N2">
-        <v>194577473.4253535</v>
+        <v>193697525.6463881</v>
       </c>
       <c r="O2">
-        <v>195467460.7642194</v>
+        <v>194499166.5856293</v>
       </c>
       <c r="P2">
-        <v>196354250.9355755</v>
+        <v>195292848.5907481</v>
       </c>
       <c r="Q2">
-        <v>197223368.8869196</v>
+        <v>196073015.7618885</v>
       </c>
       <c r="R2">
-        <v>198084467.33198</v>
+        <v>196844760.9386395</v>
       </c>
       <c r="S2">
-        <v>198975319.971229</v>
+        <v>197637073.8578999</v>
       </c>
       <c r="T2">
-        <v>199818955.4675308</v>
+        <v>198390283.6310282</v>
       </c>
       <c r="U2">
-        <v>200681166.4458969</v>
+        <v>199161123.3715741</v>
       </c>
       <c r="V2">
-        <v>201508322.5578728</v>
+        <v>199896262.3018367</v>
       </c>
       <c r="W2">
-        <v>202271824.0418027</v>
+        <v>200582181.0197221</v>
       </c>
       <c r="X2">
-        <v>203019933.9388623</v>
+        <v>201225283.8442827</v>
       </c>
       <c r="Y2">
-        <v>203849374.2772988</v>
+        <v>201966090.8747699</v>
       </c>
       <c r="Z2">
-        <v>204605787.02141</v>
+        <v>202620453.5286523</v>
       </c>
       <c r="AA2">
-        <v>205456810.1909043</v>
+        <v>203374970.6143662</v>
       </c>
       <c r="AB2">
-        <v>206201235.8877421</v>
+        <v>204011128.1437108</v>
       </c>
       <c r="AC2">
-        <v>207007079.8955558</v>
+        <v>204725396.3408416</v>
       </c>
       <c r="AD2">
-        <v>207730765.1554207</v>
+        <v>205341780.580371</v>
       </c>
       <c r="AE2">
-        <v>208487114.66381</v>
+        <v>205989956.4207962</v>
       </c>
       <c r="AF2">
-        <v>209228162.127151</v>
+        <v>206628691.171212</v>
       </c>
       <c r="AG2">
-        <v>209953097.1241403</v>
+        <v>207254477.558488</v>
       </c>
       <c r="AH2">
-        <v>210750504.3433866</v>
+        <v>207930735.4785731</v>
       </c>
       <c r="AI2">
-        <v>211594917.9441565</v>
+        <v>208633186.6157412</v>
       </c>
       <c r="AJ2">
-        <v>212375362.373049</v>
+        <v>209285941.7907197</v>
       </c>
       <c r="AK2">
-        <v>213053786.007214</v>
+        <v>209857882.1235547</v>
       </c>
       <c r="AL2">
-        <v>213809136.4386926</v>
+        <v>210483010.5399592</v>
       </c>
       <c r="AM2">
-        <v>214629087.4975894</v>
+        <v>211151194.0779106</v>
       </c>
       <c r="AN2">
-        <v>215938820.917738</v>
+        <v>212178432.4130722</v>
       </c>
       <c r="AO2">
-        <v>215891712.6013346</v>
+        <v>212183588.0866981</v>
       </c>
     </row>
   </sheetData>
@@ -2073,13 +2073,13 @@
         <v>695643.488675155</v>
       </c>
       <c r="D2">
-        <v>688822.4568321186</v>
+        <v>688822.4568321184</v>
       </c>
       <c r="E2">
         <v>681652.5925288347</v>
       </c>
       <c r="F2">
-        <v>674404.9546450276</v>
+        <v>674404.9546450275</v>
       </c>
       <c r="G2">
         <v>667139.9343443163</v>
@@ -2091,37 +2091,37 @@
         <v>652601.2453604748</v>
       </c>
       <c r="J2">
-        <v>645331.2806944958</v>
+        <v>645331.280694496</v>
       </c>
       <c r="K2">
-        <v>641426.0426595397</v>
+        <v>641426.0426595398</v>
       </c>
       <c r="L2">
         <v>641904.2142798619</v>
       </c>
       <c r="M2">
-        <v>642382.3327764543</v>
+        <v>642382.3327764545</v>
       </c>
       <c r="N2">
         <v>642860.7925910689</v>
       </c>
       <c r="O2">
-        <v>643338.2541141367</v>
+        <v>643338.2541141368</v>
       </c>
       <c r="P2">
         <v>643816.0476071427</v>
       </c>
       <c r="Q2">
-        <v>644293.4445357942</v>
+        <v>644293.444535794</v>
       </c>
       <c r="R2">
         <v>644772.655339617</v>
       </c>
       <c r="S2">
-        <v>645249.3114351666</v>
+        <v>645249.3114351667</v>
       </c>
       <c r="T2">
-        <v>645726.7626781731</v>
+        <v>645726.7626781734</v>
       </c>
       <c r="U2">
         <v>646204.7046694835</v>
@@ -2133,19 +2133,19 @@
         <v>647161.806821914</v>
       </c>
       <c r="X2">
-        <v>647483.1938594318</v>
+        <v>647483.1938594319</v>
       </c>
       <c r="Y2">
-        <v>648066.4323788421</v>
+        <v>648066.432378842</v>
       </c>
       <c r="Z2">
-        <v>648434.8387509256</v>
+        <v>648434.8387509254</v>
       </c>
       <c r="AA2">
         <v>649027.0169198607</v>
       </c>
       <c r="AB2">
-        <v>649387.4016308555</v>
+        <v>649387.4016308556</v>
       </c>
       <c r="AC2">
         <v>649979.2192438802</v>
@@ -2157,13 +2157,13 @@
         <v>650811.2405310487</v>
       </c>
       <c r="AF2">
-        <v>651287.2117887659</v>
+        <v>651287.2117887657</v>
       </c>
       <c r="AG2">
         <v>651761.911104982</v>
       </c>
       <c r="AH2">
-        <v>652237.5098450603</v>
+        <v>652237.5098450602</v>
       </c>
       <c r="AI2">
         <v>652713.0557323</v>
@@ -2175,10 +2175,10 @@
         <v>653663.7695837953</v>
       </c>
       <c r="AL2">
-        <v>654139.2375250297</v>
+        <v>654139.2375250295</v>
       </c>
       <c r="AM2">
-        <v>654615.0421234925</v>
+        <v>654615.0421234922</v>
       </c>
       <c r="AN2">
         <v>655130.0935470394</v>
@@ -2327,124 +2327,124 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48193.30980827774</v>
+        <v>48270.4795242657</v>
       </c>
       <c r="C2">
-        <v>48322.00128568195</v>
+        <v>48398.09421565657</v>
       </c>
       <c r="D2">
-        <v>48215.31637562352</v>
+        <v>48290.04013392414</v>
       </c>
       <c r="E2">
-        <v>48068.34332341465</v>
+        <v>48141.63465968824</v>
       </c>
       <c r="F2">
-        <v>47911.71308275465</v>
+        <v>47983.5575689352</v>
       </c>
       <c r="G2">
-        <v>47752.75231687359</v>
+        <v>47823.14675099129</v>
       </c>
       <c r="H2">
-        <v>47593.29640933009</v>
+        <v>47662.24007211855</v>
       </c>
       <c r="I2">
-        <v>47433.51664250958</v>
+        <v>47501.00937056764</v>
       </c>
       <c r="J2">
-        <v>47273.66940253328</v>
+        <v>47339.71115130379</v>
       </c>
       <c r="K2">
-        <v>47129.69388079088</v>
+        <v>47194.28465123341</v>
       </c>
       <c r="L2">
-        <v>47006.42030478049</v>
+        <v>47069.56005917418</v>
       </c>
       <c r="M2">
-        <v>46883.10179474726</v>
+        <v>46944.79058654243</v>
       </c>
       <c r="N2">
-        <v>46760.08942476291</v>
+        <v>46820.32708690343</v>
       </c>
       <c r="O2">
-        <v>46638.11875172527</v>
+        <v>46696.90552880164</v>
       </c>
       <c r="P2">
-        <v>46513.05595683573</v>
+        <v>46570.39172335657</v>
       </c>
       <c r="Q2">
-        <v>46389.81722572374</v>
+        <v>46445.70196204122</v>
       </c>
       <c r="R2">
-        <v>46266.23508610406</v>
+        <v>46320.66841128656</v>
       </c>
       <c r="S2">
-        <v>46142.51980473923</v>
+        <v>46195.5023119673</v>
       </c>
       <c r="T2">
-        <v>46019.19525628473</v>
+        <v>46070.72671996498</v>
       </c>
       <c r="U2">
-        <v>45895.49509685064</v>
+        <v>45945.57535113927</v>
       </c>
       <c r="V2">
-        <v>45772.06520466444</v>
+        <v>45820.69412449987</v>
       </c>
       <c r="W2">
-        <v>45648.59216441498</v>
+        <v>45695.76957236964</v>
       </c>
       <c r="X2">
-        <v>45518.71700158974</v>
+        <v>45564.03555177029</v>
       </c>
       <c r="Y2">
-        <v>45341.40523801328</v>
+        <v>45385.58365478595</v>
       </c>
       <c r="Z2">
-        <v>45256.88200090573</v>
+        <v>45299.29641873537</v>
       </c>
       <c r="AA2">
-        <v>45094.76147274366</v>
+        <v>45136.0359182326</v>
       </c>
       <c r="AB2">
-        <v>45006.82503002383</v>
+        <v>45046.33741565012</v>
       </c>
       <c r="AC2">
-        <v>44843.27333916345</v>
+        <v>44881.64582077137</v>
       </c>
       <c r="AD2">
-        <v>44758.44608424916</v>
+        <v>44795.05640475154</v>
       </c>
       <c r="AE2">
-        <v>44589.29873543018</v>
+        <v>44624.45135702083</v>
       </c>
       <c r="AF2">
-        <v>44463.43347974552</v>
+        <v>44497.13484405542</v>
       </c>
       <c r="AG2">
-        <v>44338.98579708959</v>
+        <v>44371.23641357909</v>
       </c>
       <c r="AH2">
-        <v>44214.59606624622</v>
+        <v>44245.39569354206</v>
       </c>
       <c r="AI2">
-        <v>44089.97561238195</v>
+        <v>44119.32423601466</v>
       </c>
       <c r="AJ2">
-        <v>43966.27509039073</v>
+        <v>43994.17239761062</v>
       </c>
       <c r="AK2">
-        <v>43841.41889155246</v>
+        <v>43867.86557985593</v>
       </c>
       <c r="AL2">
-        <v>43716.63070769345</v>
+        <v>43741.62639568256</v>
       </c>
       <c r="AM2">
-        <v>43591.60061081677</v>
+        <v>43615.14520565924</v>
       </c>
       <c r="AN2">
-        <v>43467.67591141581</v>
+        <v>43489.76968020611</v>
       </c>
       <c r="AO2">
-        <v>43346.92727946693</v>
+        <v>43367.5701425345</v>
       </c>
     </row>
   </sheetData>
@@ -2587,124 +2587,124 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>208662.0215360806</v>
+        <v>208584.8518200926</v>
       </c>
       <c r="C2">
-        <v>216594.1324752712</v>
+        <v>216518.0395452966</v>
       </c>
       <c r="D2">
-        <v>225460.3885001453</v>
+        <v>225385.6647418447</v>
       </c>
       <c r="E2">
-        <v>234505.1665381879</v>
+        <v>234431.8752019143</v>
       </c>
       <c r="F2">
-        <v>243590.4179296775</v>
+        <v>243518.5734434969</v>
       </c>
       <c r="G2">
-        <v>252684.88486674</v>
+        <v>252614.4904326223</v>
       </c>
       <c r="H2">
-        <v>261781.3881604735</v>
+        <v>261712.444497685</v>
       </c>
       <c r="I2">
-        <v>270878.5504160699</v>
+        <v>270811.0576880118</v>
       </c>
       <c r="J2">
-        <v>279975.8535505889</v>
+        <v>279909.8118018184</v>
       </c>
       <c r="K2">
-        <v>287723.9215047269</v>
+        <v>287659.3307342844</v>
       </c>
       <c r="L2">
-        <v>293714.2444634413</v>
+        <v>293651.1047090475</v>
       </c>
       <c r="M2">
-        <v>299704.6302118303</v>
+        <v>299642.9414200351</v>
       </c>
       <c r="N2">
-        <v>305694.5713698369</v>
+        <v>305634.3337076965</v>
       </c>
       <c r="O2">
-        <v>311683.8632374228</v>
+        <v>311625.0764603463</v>
       </c>
       <c r="P2">
-        <v>317676.1124845382</v>
+        <v>317618.7767180174</v>
       </c>
       <c r="Q2">
-        <v>323666.6916279707</v>
+        <v>323610.8068916533</v>
       </c>
       <c r="R2">
-        <v>329656.8921977612</v>
+        <v>329602.4588725787</v>
       </c>
       <c r="S2">
-        <v>335648.2350935183</v>
+        <v>335595.2525862902</v>
       </c>
       <c r="T2">
-        <v>341638.8689750943</v>
+        <v>341587.3375114141</v>
       </c>
       <c r="U2">
-        <v>347629.6808142329</v>
+        <v>347579.6005599443</v>
       </c>
       <c r="V2">
-        <v>353620.0803940646</v>
+        <v>353571.4514742292</v>
       </c>
       <c r="W2">
-        <v>359610.3148368226</v>
+        <v>359563.1374288679</v>
       </c>
       <c r="X2">
-        <v>365669.3311090611</v>
+        <v>365624.0125588806</v>
       </c>
       <c r="Y2">
-        <v>371672.015361196</v>
+        <v>371627.8369444234</v>
       </c>
       <c r="Z2">
-        <v>377667.0407286889</v>
+        <v>377624.6263108593</v>
       </c>
       <c r="AA2">
-        <v>383650.9848335387</v>
+        <v>383609.7103880498</v>
       </c>
       <c r="AB2">
-        <v>389652.5958579102</v>
+        <v>389613.0834722839</v>
       </c>
       <c r="AC2">
-        <v>395638.1076685023</v>
+        <v>395599.7351868943</v>
       </c>
       <c r="AD2">
-        <v>401636.5297838277</v>
+        <v>401599.9194633254</v>
       </c>
       <c r="AE2">
-        <v>407675.3291663663</v>
+        <v>407640.1765447756</v>
       </c>
       <c r="AF2">
-        <v>413669.0521754132</v>
+        <v>413635.3508111034</v>
       </c>
       <c r="AG2">
-        <v>419661.8584909541</v>
+        <v>419629.6078744646</v>
       </c>
       <c r="AH2">
-        <v>425654.2472760906</v>
+        <v>425623.4476487947</v>
       </c>
       <c r="AI2">
-        <v>431646.8845717858</v>
+        <v>431617.5359481531</v>
       </c>
       <c r="AJ2">
-        <v>437638.0220451694</v>
+        <v>437610.1247379495</v>
       </c>
       <c r="AK2">
-        <v>443631.615274828</v>
+        <v>443605.1685865246</v>
       </c>
       <c r="AL2">
-        <v>449624.4417289363</v>
+        <v>449599.4460409472</v>
       </c>
       <c r="AM2">
-        <v>455617.3735371919</v>
+        <v>455593.8289423496</v>
       </c>
       <c r="AN2">
-        <v>461593.6442268965</v>
+        <v>461571.5504581062</v>
       </c>
       <c r="AO2">
-        <v>467135.3911212894</v>
+        <v>467114.7482582218</v>
       </c>
     </row>
   </sheetData>
